--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,45 +46,45 @@
     <t>evil</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>seriously</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -100,13 +100,16 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>social</t>
@@ -481,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -639,13 +642,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -657,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
@@ -689,13 +692,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -739,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9038461538461539</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -757,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
@@ -789,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -807,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -839,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8636363636363636</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -857,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.4827586206896552</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -881,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -889,13 +892,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -907,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.4533333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -931,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -939,13 +942,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -957,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.04098360655737705</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -981,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1053</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -989,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4642857142857143</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1007,7 +1010,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>0.03825136612021858</v>
+      </c>
+      <c r="L12">
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <v>42</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1056</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1015,13 +1042,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.463768115942029</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1033,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1041,13 +1068,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4042553191489361</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1059,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1093,13 +1120,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3428571428571429</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1111,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1119,13 +1146,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.282051282051282</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1137,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
